--- a/TelegramBot/data/places.xlsx
+++ b/TelegramBot/data/places.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayin\Desktop\Bot\TelegramBot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A29BAD-CF8A-440D-91BE-26B5965A1DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BACC4F-92AB-45F1-BC66-C93E6E5C579E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Достопримечательности" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="184">
   <si>
     <t>Название</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Музей, где собраны уникальные экспонаты русского и западноевропейского искусства, включая работы Айвазовского и Репина.</t>
   </si>
   <si>
-    <t>ул. Большая Садовая, 111, Ростов-на-Дону</t>
-  </si>
-  <si>
     <t>Ростовский зоопарк</t>
   </si>
   <si>
@@ -109,27 +106,12 @@
     <t>Ростовский музей-заповедник "Дом-музей М.А. Шолохова"</t>
   </si>
   <si>
-    <t>Максима Горького, 2, Ростов-на-Дону</t>
-  </si>
-  <si>
     <t>Дом, в котором жил и работал писатель Михаил Шолохов. Музей рассказывает о его жизни и творчестве.</t>
   </si>
   <si>
-    <t>Ростовский государственный академический театр оперы и балета</t>
-  </si>
-  <si>
     <t>Один из старейших театров юга России, где проходят выступления мирового уровня.</t>
   </si>
   <si>
-    <t>Ростовский кремль</t>
-  </si>
-  <si>
-    <t>Исторический центр города, где сохранились древние стены и башни. Здесь находится множество музеев и памятников.</t>
-  </si>
-  <si>
-    <t>ул. Крепостная, Ростов-на-Дону</t>
-  </si>
-  <si>
     <t>Ростовский музей истории города</t>
   </si>
   <si>
@@ -142,15 +124,6 @@
     <t>Музей, посвященный истории железнодорожного транспорта на юге России.</t>
   </si>
   <si>
-    <t>Памятник Александру I</t>
-  </si>
-  <si>
-    <t>Памятник императору Александру I, установленный в честь его роли в победе над Наполеоном.</t>
-  </si>
-  <si>
-    <t>Площадь Александра I, Ростов-на-Дону</t>
-  </si>
-  <si>
     <t>Памятник Михаилу Шолохову</t>
   </si>
   <si>
@@ -160,99 +133,15 @@
     <t> Набережная реки Дон, Ростов-на-Дону</t>
   </si>
   <si>
-    <t>Памятник Екатерине II</t>
-  </si>
-  <si>
-    <t>Памятник императрице Екатерине II, символизирующий начало российской колонизации Северного Кавказа.</t>
-  </si>
-  <si>
-    <t>Площадь Народного Ополчения, Ростов-на-Дону</t>
-  </si>
-  <si>
-    <t>Памятник Сергею Есенину</t>
-  </si>
-  <si>
-    <t>Монумент поэту Сергею Есенину, установленный в его честь.</t>
-  </si>
-  <si>
-    <t>Проспект Стачки, Ростов-на-Дону</t>
-  </si>
-  <si>
-    <t>Памятник Феликсу Дзержинскому</t>
-  </si>
-  <si>
-    <t>Памятник советскому государственному деятелю, одному из основателей ЧК.</t>
-  </si>
-  <si>
-    <t>Площадь Свободы, Ростов-на-Дону</t>
-  </si>
-  <si>
     <t>Памятник Александру Пушкину</t>
   </si>
   <si>
     <t>Монумент великому русскому поэту, установленный в его честь.</t>
   </si>
   <si>
-    <t>Соборная площадь, Ростов-на-Дону</t>
-  </si>
-  <si>
     <t> ул. Железнодорожная, Ростов-на-Дону</t>
   </si>
   <si>
-    <t>Ростовский музей авиации</t>
-  </si>
-  <si>
-    <t>Музей, где представлены экспонаты, связанные с историей авиации.</t>
-  </si>
-  <si>
-    <t> ул. Авиационная, Ростов-на-Дону</t>
-  </si>
-  <si>
-    <t>Ростовский музей военной техники</t>
-  </si>
-  <si>
-    <t>Музей, где можно увидеть военную технику, начиная с XX века.</t>
-  </si>
-  <si>
-    <t>ул. Военная, Ростов-на-Дону</t>
-  </si>
-  <si>
-    <t>Ростовский музей космонавтики</t>
-  </si>
-  <si>
-    <t>Музей, посвященный истории освоения космоса.</t>
-  </si>
-  <si>
-    <t> ул. Космонавтов, Ростов-на-Дону</t>
-  </si>
-  <si>
-    <t>Ростовский музей народного творчества</t>
-  </si>
-  <si>
-    <t>Музей, где представлены экспонаты, связанные с народным искусством.</t>
-  </si>
-  <si>
-    <t>ул. Народная, Ростов-на-Дону</t>
-  </si>
-  <si>
-    <t>Ростовский музей природы</t>
-  </si>
-  <si>
-    <t>Музей, где можно увидеть экспонаты, связанные с природой региона.</t>
-  </si>
-  <si>
-    <t> ул. Природная, Ростов-на-Дону</t>
-  </si>
-  <si>
-    <t>Ростовский музей археологии</t>
-  </si>
-  <si>
-    <t>Музей, где представлены экспонаты, связанные с археологическими находками.</t>
-  </si>
-  <si>
-    <t> ул. Археологическая, Ростов-на-Дону</t>
-  </si>
-  <si>
     <t>пр-кт Чехова, 60, Ростов-на-Дону</t>
   </si>
   <si>
@@ -386,13 +275,349 @@
   </si>
   <si>
     <t>https://yandex.ru/maps/org/h2o/217774605553/?ll=39.717829%2C47.262735&amp;mode=search&amp;sll=39.718859%2C47.262735&amp;text=h20&amp;z=18</t>
+  </si>
+  <si>
+    <t>Памятник установлен у входа в парк, смотрится достаточно хорошо, высокий постамент и памятник сзади закрывают деревья. Состояние памятника хорошее, прогуливаясь стоит осмотреть.</t>
+  </si>
+  <si>
+    <t>Памятник В.И. Ленин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ростов-на-Дону, Центральный парк культуры и отдыха имени М. Горького</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/39/rostov-na-donu/?ll=39.710032%2C47.221021&amp;mode=poi&amp;poi%5Bpoint%5D=39.709969%2C47.221001&amp;poi%5Buri%5D=ymapsbm1%3A%2F%2Forg%3Foid%3D228483136990&amp;z=20.82</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/39/rostov-na-donu/?ll=39.655402%2C47.234978&amp;mode=poi&amp;poi%5Bpoint%5D=39.654678%2C47.235205&amp;poi%5Buri%5D=ymapsbm1%3A%2F%2Forg%3Foid%3D238501415583&amp;z=16.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Зоологическая ул., 3, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/39/rostov-na-donu/?ll=39.672474%2C47.247421&amp;mode=poi&amp;poi%5Bpoint%5D=39.672730%2C47.247508&amp;poi%5Buri%5D=ymapsbm1%3A%2F%2Forg%3Foid%3D1104731603&amp;z=16.49</t>
+  </si>
+  <si>
+    <t>Пушкинская улица, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/39/rostov-na-donu/?ll=39.716775%2C47.225574&amp;mode=poi&amp;poi%5Bpoint%5D=39.716829%2C47.225579&amp;poi%5Buri%5D=ymapsbm1%3A%2F%2Forg%3Foid%3D205697333047&amp;z=19.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Социалистическая ул. 157, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>Ростовский государственный музыкальный театр</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/39/rostov-na-donu/?ll=39.732756%2C47.224645&amp;mode=poi&amp;poi%5Bpoint%5D=39.732391%2C47.224399&amp;poi%5Buri%5D=ymapsbm1%3A%2F%2Forg%3Foid%3D1138347645&amp;z=19.44</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/39/rostov-na-donu/?ll=39.712208%2C47.213299&amp;mode=poi&amp;poi%5Bpoint%5D=39.712406%2C47.213493&amp;poi%5Buri%5D=ymapsbm1%3A%2F%2Forg%3Foid%3D82115234914&amp;z=19.14</t>
+  </si>
+  <si>
+    <t>Ростов Арена</t>
+  </si>
+  <si>
+    <t>«Ростов Арена» — футбольный стадион в Ростове-на-Дону, построенный в 2018 году для проведения матчей чемпионата мира.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Левобережная ул., 2Б, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/39/rostov-na-donu/?ll=39.744262%2C47.204220&amp;mode=poi&amp;poi%5Bpoint%5D=39.737831%2C47.209435&amp;poi%5Buri%5D=ymapsbm1%3A%2F%2Forg%3Foid%3D140043458368&amp;z=14.31</t>
+  </si>
+  <si>
+    <t>Ростовский кафедральный собор Рождества Пресвятой Богородицы</t>
+  </si>
+  <si>
+    <t>Ростовский кафедральный собор Рождества Пресвятой Богородицы — главный храм Ростовской-на-Дону епархии Русской православной церкви. Он расположен в Ростове-на-Дону и является значимым духовным центром. Собор имеет богатую историю и архитектурные особенности, которые привлекают множество верующих.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ул. Станиславского, 58, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/39/rostov-na-donu/?ll=39.722213%2C47.217547&amp;mode=poi&amp;poi%5Bpoint%5D=39.712021%2C47.217287&amp;poi%5Buri%5D=ymapsbm1%3A%2F%2Forg%3Foid%3D1018899819&amp;z=14.31</t>
+  </si>
+  <si>
+    <t>Ростовский-на-Дону колледж связи и информатики</t>
+  </si>
+  <si>
+    <t>"Ростовский колледж связи информатики - это место, где профессионализм и инновации в обучении сочетаются с дружеской атмосферой и заботой о студентах. Преподаватели колледжа не только обладают высокой квалификацией, но и умеют вдохновлять студентов на достижение новых вершин в области информационных технологий.</t>
+  </si>
+  <si>
+    <t>Тургеневская ул., 10/6, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/39/rostov-na-donu/?ll=39.707033%2C47.214691&amp;mode=poi&amp;poi%5Bpoint%5D=39.704912%2C47.214615&amp;poi%5Buri%5D=ymapsbm1%3A%2F%2Forg%3Foid%3D1100902337&amp;z=17.38</t>
+  </si>
+  <si>
+    <t>Донская государственная публичная библиотека</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Пушкинская ул., 175А, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>«Донская библиотека» — это старейшая библиотека на юге России с фондом свыше 5 миллионов экземпляров.</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/39/rostov-na-donu/?ll=39.727228%2C47.228454&amp;mode=poi&amp;poi%5Bpoint%5D=39.726777%2C47.228487&amp;poi%5Buri%5D=ymapsbm1%3A%2F%2Forg%3Foid%3D1077858910&amp;z=17.58</t>
+  </si>
+  <si>
+    <t>Ростовский государственный цирк</t>
+  </si>
+  <si>
+    <t>Ростовский государственный цирк был построен в 1957 году и является одним из крупнейших цирков в Европе. История цирка началась с передвижных шапито, затем были открыты стационарные цирки. Первое стационарное здание цирка в Ростове-на-Дону было построено в конце XIX века.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Будённовский просп., 45, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/39/rostov-na-donu/?ll=39.706041%2C47.224274&amp;mode=poi&amp;poi%5Bpoint%5D=39.704959%2C47.224385&amp;poi%5Buri%5D=ymapsbm1%3A%2F%2Forg%3Foid%3D201929294938&amp;z=17.37</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/39/rostov-na-donu/?ll=39.640309%2C47.190422&amp;mode=poi&amp;poi%5Bpoint%5D=39.636226%2C47.190481&amp;poi%5Buri%5D=ymapsbm1%3A%2F%2Forg%3Foid%3D1071353464&amp;z=15.34</t>
+  </si>
+  <si>
+    <t>Аксайский военно-исторический музей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ул. Мухина Балка, 1, Аксай</t>
+  </si>
+  <si>
+    <t>Аксайский военно-исторический музей — это музей, расположенный в заповеднике «Мухина балка», посвященный генерал-полковнику авиации Николаю Дмитриевичу Гулаеву, дважды Герою Советского Союза.</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/?ll=39.892159%2C47.270533&amp;mode=poi&amp;poi%5Bpoint%5D=39.891288%2C47.271305&amp;poi%5Buri%5D=ymapsbm1%3A%2F%2Forg%3Foid%3D1004719337&amp;z=16.53</t>
+  </si>
+  <si>
+    <t>Ростовский областной музей краеведения</t>
+  </si>
+  <si>
+    <t>Ростовский областной музей краеведения — это один из крупнейших музеев на юге России, основанный в 1937 году.</t>
+  </si>
+  <si>
+    <t>Большая Садовая ул. 79, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/39/rostov-na-donu/house/bolshaya_sadovaya_ulitsa_79/Z0AYcQViS0EDQFptfX5zcntibA==/?ll=39.722196%2C47.223951&amp;z=17</t>
+  </si>
+  <si>
+    <t>Музей истории развития связи на Дону</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Будённовский просп., 50, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>Уютный офис, классные менеджеры! Очень интересно, советую сходить с детьми</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/org/muzey_istorii_razvitiya_svyazi_na_donu/126940334853/?ll=39.708004%2C47.224465&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCQCo4sYt3kNAES0Kuyh6nEdAEhIJ7Z3RViWRsT8RLT4FwHgGnT8iBgABAgMEBSgKOABAg80GSAFqAnJ1nQHNzMw9oAEAqAEAvQGYS5sZwgEVhZbv8dgDscbqwQSBja2DBJqa0PoDggIK0LzRg9C30LXQuIoCCTE4NDEwNTg5NJICAJoCDGRlc2t0b3AtbWFwc6oCDDE1NjEzMTU1Mjk4MA%3D%3D&amp;sll=39.708004%2C47.224465&amp;sspn=0.007647%2C0.004362&amp;text=%D0%BC%D1%83%D0%B7%D0%B5%D0%B8&amp;z=17.5</t>
+  </si>
+  <si>
+    <t>Ресторан «Море Fish'ka. Икорный» — это место, где можно попробовать свежие морепродукты, такие как устрицы, мидии, морские ежи и осьминоги.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Пушкинская ул., 65, Ростов-на-Дону</t>
+    </r>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/org/more_fish_ka_ikorny/37372498520/?filter=alternate_vertical%3ARequestWindow&amp;ll=39.721320%2C47.221401&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCfa3BOCf2kNAEV8M5US7nEdAEhIJL6aZ7nVSfz8RG76FdePdcT8iBgABAgMEBSgKOABAg80GSAFqAnJ1nQHNzMw9oAEAqAEAvQG35AKswgGRAZeX5rHIBcfepsLxAqes7cIExf6CkNMB9M6J4ejohOawAbqx7vbcA8XO9sME4brUxaID1YO3hwa%2BrdT7ugb32eWQrQTn2YPSfISnt%2F67Bb2Ci8o4yvuxtMkGwZ%2FKrNAF7f%2Fvs7gB9oGIhQT6%2BKTI6wWn%2FaOHzgLTpvXE3QayrZ7CpgKgr%2B6BBL2Ymegx0rDikgSCAhLRgNC10YHRgtC%2B0YDQsNC90YuKAgkxODQxMDYzOTSSAgCaAgxkZXNrdG9wLW1hcHOqAiMyOTYyNjI4NjIwLDIxNjA4NDI5NDQ1LDE0NTE4NjAxMTEwOA%3D%3D&amp;sll=39.715770%2C47.221401&amp;sspn=0.040241%2C0.016622&amp;text=%D1%80%D0%B5%D1%81%D1%82%D0%BE%D1%80%D0%B0%D0%BD%D1%8B&amp;z=15.57</t>
+  </si>
+  <si>
+    <t>рыба, морепродукты, мидии, высокий рейтинг</t>
+  </si>
+  <si>
+    <t>Ресторан «ОнегинДача» — это место, где царит уютная и одновременно торжественная атмосфера, а под потолком ездит паровозик по железной дороге.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+просп. Чехова, 45Б, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/org/onegindacha/149553769719/?filter=alternate_vertical%3ARequestWindow&amp;ll=39.729178%2C47.224601&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCfa3BOCf2kNAEV8M5US7nEdAEhIJL6aZ7nVSfz8RG76FdePdcT8iBgABAgMEBSgKOABAh80GSAFqAnJ1nQHNzMw9oAEAqAEAvQG35AKswgGSAZeX5rHIBdOm9cTdBquryNuIAvr4pMjrBfTOieHo6ITmsAH32eWQrQT5mrLpiQbe2ovcbq3qu8a3A43aztB6nYWRj6sD1YO3hwb3mZmH7wGyrZ7CpgKQ8cv7%2FgWSuIn%2BBtKw4pIEoOeqvQSutIuW6QK9uYKt9wTFgcn%2BDK7xxYIE88e28q8Eta7m940Bp%2FalzOsDggIS0YDQtdGB0YLQvtGA0LDQvdGLigIJMTg0MTA2Mzk0kgIAmgIMZGVza3RvcC1tYXBzqgIjMjk2MjYyODYyMCwyMTYwODQyOTQ0NSwxNDUxODYwMTExMDg%3D&amp;sll=39.725516%2C47.224601&amp;sspn=0.026549%2C0.010966&amp;text=%D1%80%D0%B5%D1%81%D1%82%D0%BE%D1%80%D0%B0%D0%BD%D1%8B&amp;z=16.17</t>
+  </si>
+  <si>
+    <t>высокий рейтинг, дорого, богато, живая музыка</t>
+  </si>
+  <si>
+    <t>Ресторан Море "Fish'ka. Икорный"</t>
+  </si>
+  <si>
+    <t>Ресторан "Онегин Дача"</t>
+  </si>
+  <si>
+    <t>Парк культуры и отдыха 1 Мая</t>
+  </si>
+  <si>
+    <t>«Парк культуры и отдыха 1 Мая» — это небольшой, но уютный парк, расположенный в центре города Ростов-на-Дону.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ростов-на-Дону, парк имени 1 Мая</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/org/mbu_park_kultury_i_otdykha_1_maya/140338491695/?filter=alternate_vertical%3ARequestWindow&amp;ll=39.746020%2C47.227654&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCTl7Z7RV3UNAEQ%2FTvrm%2FnEdAEhIJcvkP6bevkz8Rbojxmld1hj8iBgABAgMEBSgKOABAh80GSAFqAnJ1nQHNzMw9oAEAqAEAvQHOtjqPwgEgmJCYvM4Br%2BLN5ooEx%2Fyx8AOkl4zgqAKhhIClsbTXzWOCAgrQv9Cw0YDQutC4igITMTg0MTA2MzQ2JDI1NjAzNzM2MpICAJoCDGRlc2t0b3AtbWFwcw%3D%3D&amp;sll=39.746020%2C47.227654&amp;sspn=0.027188%2C0.015507&amp;text=%D0%BF%D0%B0%D1%80%D0%BA%D0%B8&amp;z=15.67</t>
+  </si>
+  <si>
+    <t>Детский парк им. В. Черевичкина</t>
+  </si>
+  <si>
+    <t>Детский парк имени Вити Черевичкина — это единственный детский парк в Ростове-на-Дону. Он был основан в 1880 году и назван в честь императора Александра II. С 1936 года парк назывался «Детский парк пионеров и школьников», а с 1965 года — имени Вити Черевичкина.</t>
+  </si>
+  <si>
+    <t>Ростов-на-Дону, 
+Театральная площадь, 6</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/org/detskiy_park_im_v_cherevichkina/1041006151/?filter=alternate_vertical%3ARequestWindow&amp;ll=39.753734%2C47.227324&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCTl7Z7RV3UNAEQ%2FTvrm%2FnEdAEhIJcvkP6bevkz8Rbojxmld1hj8iBgABAgMEBSgKOABAiM0GSAFqAnJ1nQHNzMw9oAEAqAEAvQHOtjqPwgERmJCYvM4Br%2BLN5ooEx%2Fyx8AOCAgrQv9Cw0YDQutC4igITMTg0MTA2MzQ2JDI1NjAzNzM2MpICAJoCDGRlc2t0b3AtbWFwcw%3D%3D&amp;sll=39.753734%2C47.227324&amp;sspn=0.027188%2C0.015507&amp;text=%D0%BF%D0%B0%D1%80%D0%BA%D0%B8&amp;z=15.67</t>
+  </si>
+  <si>
+    <t>Джоуль парк</t>
+  </si>
+  <si>
+    <t>Интереснейшие место! Познавательно и очень интересно,даже взрослым,все интерактивно,главное,что все можно трогать!Отличный мастер класс по химии!Также можно прикупить любые опыты!</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/org/dzhoul_park/98370295040/?filter=alternate_vertical%3ARequestWindow&amp;ll=39.717236%2C47.227593&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCQ%2FxD1t64ENAEUfM7PMYnUdAEhIJQ%2BVfyyvXmz8RJGHfTiLCjz8iBgABAgMEBSgKOABAi80GSAFqAnJ1nQHNzMw9oAEAqAEAvQHTsvc7wgGLAYCqzrruAsLS24%2FPAvXcr69soLr54%2BYGy7%2FL1fLAsa8C%2BYv77gPhgN6SkQL96vanZIvitswE%2Fci1iaoB%2FPrQgwSm%2B7zfBOKC3t5up7qLutQF1%2F6OmuAG5%2Fa0xgaz%2B4C%2Fwwa5qeCIBq7wv%2BXjBof4h7YF3u34gASXoOXqFcSA5du2A866n%2FkD3Y603gOCAhbQoNCw0LfQstC70LXRh9C10L3QuNGPigLLATE4NDEwNjM3MiQxODQxMDYzNTQkMTg0MTA2Mzc4JDU2Mzk2NzEwODk1JDg4ODQ0NTc1NjkzJDE4NDEwNjM1MCQxODQxMDYzNjAkMTg0MTA2MzY4JDE4NDEwNjM4MCQyMTUwNjcyMDYyNzckMTg0MTA1ODk0JDE4NDEwNTg3MiQxODQxMDU4NjgkMTg0MTA2MzU4JDM0MDIzODk0Mzk3JDE5MjQ0ODA5MjgzJDE4NDEwNjM4NCQ3ODA5MjgzMzgkMTkxNDcyNjg5NjcykgIAmgIMZGVza3RvcC1tYXBzqgIZMjM0NzE1NDM0NjA1LDEwMzcwNzY3OTI5OA%3D%3D&amp;sll=39.717236%2C47.227593&amp;sspn=0.026629%2C0.015188&amp;text=%D0%A0%D0%B0%D0%B7%D0%B2%D0%BB%D0%B5%D1%87%D0%B5%D0%BD%D0%B8%D1%8F&amp;z=15.7</t>
+  </si>
+  <si>
+    <t>Чё за Квест</t>
+  </si>
+  <si>
+    <t>Квесты «Чё за Квест» — это место, где вы можете провести свой день рождения или просто весело провести время с друзьями и семьей.</t>
+  </si>
+  <si>
+    <t>просп. Соколова, 23, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Красноармейская ул., 170, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/org/chyo_za_kvest/45653779581/?filter=alternate_vertical%3ARequestWindow&amp;ll=39.725505%2C47.224804&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCQ%2FxD1t64ENAEUfM7PMYnUdAEhIJQ%2BVfyyvXmz8RJGHfTiLCjz8iBgABAgMEBSgKOABAh80GSAFqAnJ1nQHNzMw9oAEAqAEAvQHTsvc7wgGNAYCqzrruAvXcr69swtLbj88C%2Fci1iaoBy7%2FL1fLAsa8CoLr54%2BYG%2Fer2p2Sr7M6%2F5Ab5i%2FvuA8TmvY2qBvz60IMEuangiAbhgN6SkQLP9q2SBIf4h7YFpvu83wTigt7ebq7wv%2BXjBpeg5eoV1%2F6OmuAGjt3xs78FhNTPzNkDxIDl27YD5%2Fa0xgbK%2BfH1BIICFtCg0LDQt9Cy0LvQtdGH0LXQvdC40Y%2BKAssBMTg0MTA2MzcyJDE4NDEwNjM1NCQxODQxMDYzNzgkNTYzOTY3MTA4OTUkODg4NDQ1NzU2OTMkMTg0MTA2MzUwJDE4NDEwNjM2MCQxODQxMDYzNjgkMTg0MTA2MzgwJDIxNTA2NzIwNjI3NyQxODQxMDU4OTQkMTg0MTA1ODcyJDE4NDEwNTg2OCQxODQxMDYzNTgkMzQwMjM4OTQzOTckMTkyNDQ4MDkyODMkMTg0MTA2Mzg0JDc4MDkyODMzOCQxOTE0NzI2ODk2NzKSAgCaAgxkZXNrdG9wLW1hcHOqAhkyMzQ3MTU0MzQ2MDUsMTAzNzA3Njc5Mjk4&amp;sll=39.725505%2C47.224804&amp;sspn=0.026629%2C0.015189&amp;text=%D0%A0%D0%B0%D0%B7%D0%B2%D0%BB%D0%B5%D1%87%D0%B5%D0%BD%D0%B8%D1%8F&amp;z=15.7</t>
+  </si>
+  <si>
+    <t>Ресторан ''Sumo Izakaya''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Пушкинская ул., 163-169, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>Ресторан, суши-бар, кафе, японская кухня, азиатсая кухня, еда на свежем воздухе</t>
+  </si>
+  <si>
+    <t>Очень уютный ресторан хорошо стилизован, особенно приятно завтракать на свежем воздухе, эдакий азиатский уголок природы в хорошей локации, вкусная паназиатская кухня, и особое впечатление от персонала, искренне приветливы, внимательны, общительны. Часто здесь бываю и рекомендую</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/org/sumo_izakaya/92679372056/?filter=type_cuisine%3Ajapanese_cuisine%3Bvariety_food%3Asushi%3Balternate_vertical%3ARequestWindow&amp;ll=39.737177%2C47.226406&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCQbZsnxd3kNAEfKyJhb4nEdAEhIJJH7FGi5yrz8RsK91qRH6mT8iBgABAgMEBSgKOABAh80GSAFqAnJ1nQHNzMw9oAEAqAEAvQHxh5wBwgFpweSggAW8hbqUnwGgr%2B6BBL25gq33BOy7g%2BOxtfzIFfy%2B7Psf24TC0wS0qbLomgGY%2Bvug2QLIoNKrBs6x46ikAZW07bw9jK73pKsBtbb9xtcFz6%2BsxqcB%2BJWb65YEvImjmZABleLu4IEBggII0KHRg9GI0LiKAqkDMTM4Nzc4ODk5NiQ2ODE5MDczMTA5NSQxODQxMDgyNzMkMTg0MTA2MzkyJDE4NDEwNjM5MCQxODQxMDYzOTQkMTg0MTA2Mzg2JDc3MDkzMTUzNyQxODQxMDYzODQkMTg0MTA2Nzc0JDE3ODc4MTIyMzQ5MCQxODQxMDgwMjMkMzUxOTMxMTQ5MzckMzQ4NjY3NjkxNjAkMTg0MTA2Mzk2JDg3NTk5MzIzNjMwJDE4NDEwODAzMSQxNjc1NDY0ODgxODAkMTg0MTA4MDI5JDE4NzE0MjA2NTU2OSQxODQxMDgwMzMkMTg0MTA4MDM1JDIxNTgzOTA2MjM3NSQxODQxMDgwMTckMTg0MTA4MDI3JDE4NDEwNjc5OCQxODQxMDY3ODgkMTg0MTA4MDEzJDE5MDI1NDIwNzY1NSQxODQxMDgwMjUkMTg0MTA2NDc0JDE4NDEwODAxMSQxODQxMDgwMTkkMTg0MTA4MDIxJDExMDQyMzk0MDA3JDI4NzE0OTAwNTI2JDQwNDY5Mjc4MzQzJDE0NDE3NjUzNjQwMSQyMjYxMDcwNzEyMTWSAgCaAgxkZXNrdG9wLW1hcHOqAuQBMjM1OTcwMjMzNTk3LDUxODExNDAwNTAsODE1NjIxNDE4NjksNzM4ODY0NjkwNTMsOTE4Mzc1MTI0NjksMTUzMTQxMTk3Mjg1LDIwMDIwNTA0OTgwNywyMjQwMDU4NDU1MSwyOTczNTI1OTgxLDMzMTQwODg5NDUwLDE1MTkzNDcwNjM0LDg3NjgxNjQ0NjAyLDE3NTg3NTE0MTI2NCw1MDQ1NTAxNjI0LDcwODkxMjY2NTAyLDI2OTcxNzgwMjA3LDUyOTgwMjgxMzEwLDEwOTY4NTM5Njg1NCwzOTM1NjQzNDYwwgID4oK9&amp;sll=39.737177%2C47.226406&amp;sspn=0.047338%2C0.027001&amp;text=%D0%A1%D1%83%D1%88%D0%B8&amp;z=14.87</t>
+  </si>
+  <si>
+    <t>Студенческий парк ДГТУ</t>
+  </si>
+  <si>
+    <t>«Студенческий парк ДГТУ» — это зеленый оазис в центре города, где можно отдохнуть от городской суеты и насладиться свежим воздухом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ростов-на-Дону, Студенческий парк ДГТУ</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/org/studencheskiy_park_dgtu/151609631062/?filter=alternate_vertical%3ARequestWindow&amp;ll=39.761396%2C47.264996&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCYQu4dBb3kNAESDPLt%2F6nEdAEhIJEVK3s688qD8RsVHWbyammz8iBgABAgMEBSgKOABAic0GSAFqAnJ1nQHNzMw9oAEAqAEAvQHOtjqPwgGRAaCZuMIGmJCYvM4B%2FPrQgwSa9KCfoQShhIClsbTXzWOLwa66mAagzpzDBO3Ru%2BoEvbeezATuqqf5aPvTsui1BtbCjeW0BK%2FizeaKBMuV5M18x%2Fyx8AOflau%2B%2BAax2sX88QbTr8Cq8gWItPq83gaYp6q9lAPswMS0mQbo9bfGnwPWiqjw9ALuktPE9wP9yoS5wgSCAgrQv9Cw0YDQutC4igITMTg0MTA2MzQ2JDI1NjAzNzM2MpICAJoCDGRlc2t0b3AtbWFwcw%3D%3D&amp;sll=39.726549%2C47.264996&amp;sspn=0.252577%2C0.104247&amp;text=%D0%BF%D0%B0%D1%80%D0%BA%D0%B8&amp;z=12.92</t>
+  </si>
+  <si>
+    <t>Музей Россия – моя история</t>
+  </si>
+  <si>
+    <t>Музей «Россия — моя история» — это место, где история нашей страны представлена в интерактивном формате. Здесь можно узнать много нового и интересного, а также проверить свои знания с помощью тестов и викторин.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+просп. Шолохова, 31И, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/org/rossiya_moya_istoriya/78146961910/?ll=39.773007%2C47.242842&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCRGnk2x14UNAERDJkGProUdAEhIJ2e2zykxpxz8RwsO0b%2B6vuj8iBgABAgMEBSgKOABA0YgGSAFqAnJ1nQHNzMw9oAEAqAEAvQHKCI2%2BwgEs9oOwj6MC%2B7P3xQTptvzVCe35zbIGyZ6ijrkGuOG39AOogZzciwHh59iGvAOCAgrQvNGD0LfQtdC5igIJMTg0MTA1ODk0kgIAmgIMZGVza3RvcC1tYXBzqgIZMTU2MTMxNTUyOTgwLDIwNTY3NDg2NTk1Nw%3D%3D&amp;sll=39.773007%2C47.242842&amp;sspn=0.060335%2C0.034403&amp;text=%D0%BC%D1%83%D0%B7%D0%B5%D0%B9&amp;z=14.52</t>
+  </si>
+  <si>
+    <t>Ресторан "Гаврош"</t>
+  </si>
+  <si>
+    <t>Ресторан «Гаврош» — это место, куда можно прийти как на завтрак с семьей, так и на романтический ужин. Здесь вы найдете блюда с утонченным вкусом и эстетичной подачей, а также большую террасу с красивым видом на Пушкинскую набережную.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+пер. Островского, 69/36, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/org/gavrosh/225864089034/?filter=alternate_vertical%3ARequestWindow&amp;ll=39.704678%2C47.222243&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCR9KtOTx4kNAETEMWHIVn0dAEhIJ3Lqbpzrkrj8RZsHEH0WdoT8iBgABAgMEBSgKOABAg80GSAFqAnJ1nQHNzMw9oAEAqAEAvQG35AKswgGDAcXO9sMEyvuxtMkG4brUxaIDxYeU3fwF9M6J4ejohOawAaf9o4fOAs%2BvrManAc%2Fwq%2Fv%2BBZf%2BuNaYBe%2BQwuw4s%2Bzq870Fv4PGrAT19uCcjQbt%2F%2B%2BzuAHYpMyciwGo06%2BrkgLtp9zl%2BgHm5%2FGYzgXpt5CGBcrH6uTyBt%2BMsL8E0pGel90GggIS0KDQtdGB0YLQvtGA0LDQvdGLigIJMTg0MTA2Mzk0kgIAmgIMZGVza3RvcC1tYXBzqgIjMjk2MjYyODYyMCwxNDUxODYwMTExMDgsMjE2MDg0Mjk0NDU%3D&amp;sll=39.704678%2C47.222243&amp;sspn=0.011352%2C0.006476&amp;text=%D0%A0%D0%B5%D1%81%D1%82%D0%BE%D1%80%D0%B0%D0%BD%D1%8B&amp;z=16.93</t>
+  </si>
+  <si>
+    <t>Ресторан, высокий рейтинг, красивый вид на набережную</t>
+  </si>
+  <si>
+    <t>Парк Строителей</t>
+  </si>
+  <si>
+    <t>«Парк Строителей» — это небольшой парк в самом центре Ростова-на-Дону. Здесь можно отдохнуть в тени деревьев, покормить голубей и покататься на санках зимой.</t>
+  </si>
+  <si>
+    <t>Ростов-на-Дону, улица Малюгиной</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/org/park_stroiteley/202489468883/?filter=alternate_vertical%3ARequestWindow&amp;ll=39.708653%2C47.230152&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCfgaguMy2kNAEelhaHVynEdAEhIJ7xr0pbc%2Fhz8RVaNXA5SGej8iBgABAgMEBSgKOABAJ0gBagJydZ0BzczMPaABAKgBAL0BzrY6j8IBPfz60IME1sKN5bQE06%2FAqvIFkO%2Ba1o8FoYSApbG0181jwKP42R%2FM%2FIuZ6gakl4zgqALvh9XJ4QSvs7fg2waCAgrQv9Cw0YDQutC4igITMTg0MTA2MzQ2JDI1NjAzNzM2MpICAJoCDGRlc2t0b3AtbWFwcw%3D%3D&amp;sll=39.708653%2C47.230152&amp;sspn=0.034894%2C0.019902&amp;text=%D0%BF%D0%B0%D1%80%D0%BA%D0%B8&amp;z=15.31</t>
+  </si>
+  <si>
+    <t>Ледоград</t>
+  </si>
+  <si>
+    <t>Каток «Ледоград» — это место, где вы можете насладиться катанием на коньках под музыкальное сопровождение.</t>
+  </si>
+  <si>
+    <t>Театральная площадь, 3/1, Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/org/ledograd/70139115046/?ll=39.747853%2C47.230462&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCSybOSS12kNAEfON6J51nUdAEhIJQzunWaDdoT8R5%2F1%2FnDBhlD8iBgABAgMEBSgKOABAiM0GSAFqAnJ1nQHNzMw9oAEAqAEAvQHTsvc7wgEpmJCYvM4Bj7zukJ8CqIGc3IsBpuz3pIUC26i5nwSCq4iMvQPhiNiKkwOCAhbQoNCw0LfQstC70LXRh9C10L3QuNGPigLLATE4NDEwNjM3MiQxODQxMDYzNTQkMTg0MTA2Mzc4JDU2Mzk2NzEwODk1JDg4ODQ0NTc1NjkzJDE4NDEwNjM1MCQxODQxMDYzNjAkMTg0MTA2MzY4JDE4NDEwNjM4MCQyMTUwNjcyMDYyNzckMTg0MTA1ODk0JDE4NDEwNTg3MiQxODQxMDU4NjgkMTg0MTA2MzU4JDM0MDIzODk0Mzk3JDE5MjQ0ODA5MjgzJDE4NDEwNjM4NCQ3ODA5MjgzMzgkMTkxNDcyNjg5NjcykgIAmgIMZGVza3RvcC1tYXBzqgIZMjM0NzE1NDM0NjA1LDEwMzcwNzY3OTI5OA%3D%3D&amp;sll=39.747853%2C47.230462&amp;sspn=0.008845%2C0.005045&amp;text=%D0%A0%D0%B0%D0%B7%D0%B2%D0%BB%D0%B5%D1%87%D0%B5%D0%BD%D0%B8%D1%8F&amp;z=17.29</t>
+  </si>
+  <si>
+    <t>Киномакс</t>
+  </si>
+  <si>
+    <t>Кинотеатр «Киномакс» расположен на втором этаже торгового центра «МегаМаг» и предлагает своим гостям 10 кинозалов, включая два VIP-зала.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Пойменная ул., 1М, микрорайон Заречная</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/org/kinomaks/171307072101/?indoorLevel=3&amp;ll=39.724375%2C47.203988&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCSybOSS12kNAEfON6J51nUdAEhIJQzunWaDdoT8R5%2F1%2FnDBhlD8iBgABAgMEBSgKOABAg80GSAFqAnJ1nQHNzMw9oAEAqAEAvQHTsvc7wgEo9IawzcMG1uXumQzw26aTBOX0yZX%2BBOfMwJWwBaPG3qnPBr6U04%2FrBoICFtCg0LDQt9Cy0LvQtdGH0LXQvdC40Y%2BKAssBMTg0MTA2MzcyJDE4NDEwNjM1NCQxODQxMDYzNzgkNTYzOTY3MTA4OTUkODg4NDQ1NzU2OTMkMTg0MTA2MzUwJDE4NDEwNjM2MCQxODQxMDYzNjgkMTg0MTA2MzgwJDIxNTA2NzIwNjI3NyQxODQxMDU4OTQkMTg0MTA1ODcyJDE4NDEwNTg2OCQxODQxMDYzNTgkMzQwMjM4OTQzOTckMTkyNDQ4MDkyODMkMTg0MTA2Mzg0JDc4MDkyODMzOCQxOTE0NzI2ODk2NzKSAgCaAgxkZXNrdG9wLW1hcHOqAhkyMzQ3MTU0MzQ2MDUsMTAzNzA3Njc5Mjk4&amp;sll=39.724375%2C47.203988&amp;sspn=0.010302%2C0.005879&amp;text=%D0%A0%D0%B0%D0%B7%D0%B2%D0%BB%D0%B5%D1%87%D0%B5%D0%BD%D0%B8%D1%8F&amp;z=17.07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +649,27 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF4433"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -446,7 +692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,6 +703,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -742,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,17 +1063,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -828,153 +1083,179 @@
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2295,9 +2576,20 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{CE2C3096-EE5D-4626-B0C9-2E12F63162EA}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{F3D4D407-E9C6-4B31-B035-367C4143E1BA}"/>
     <hyperlink ref="D4" r:id="rId3" display="https://yandex.ru/maps/org/paramonovskiye_sklady/74465128388/?ll=39.728067%2C47.218069&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCbh1N0912kNAEUUOETennEdAEhIJjNr9KsB3az8RCks8oGzKVT8iBgABAgMEBSgKOABAh80GSAFqAnJ1nQHNzMw9oAEAqAEAvQFe%2FoVkwgEGxN%2Fes5UCggIn0J%2FQsNGA0LDQvNC%2B0L3QvtCy0YHQutC40LUg0YHQutC70LDQtNGLigIAkgIAmgIMZGVza3RvcC1tYXBz&amp;sll=39.728067%2C47.218069&amp;sspn=0.006753%2C0.002678&amp;text=Парамоновские%20склады&amp;z=18.19" xr:uid="{50EAF52C-F125-47AF-A64A-B2F1692E5B0F}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{F4FA2B0F-D1A3-46F4-AA9C-65E1C9324832}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{5FC2EA74-D1DE-4B95-8694-4294828F3C30}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{16A4365A-CDBF-477F-9AE4-7C31087D749C}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{3A2C4F2B-A021-41BB-AE74-FD3E477F7367}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{40FAAFF0-FDCA-462C-8D03-01534DBDA3EF}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{1C8A24DA-E7FB-4DDE-8FFF-FB7AED881E17}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{E505F74D-E4B7-4D16-9CC9-AB4940A0522B}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{BFE65385-C01F-4D6D-A640-DE320A064995}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{42290E5E-99E2-4DCC-9CF1-7D394BA8A1AF}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{41A85229-82D6-4B01-BB77-5E68CF514544}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{63807F7A-60AB-4336-AE61-2A6A762DD341}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -2306,7 +2598,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,116 +2631,119 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -2500,18 +2795,23 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{BBAD4DF4-C827-4F69-8581-34D2C089FD1D}"/>
     <hyperlink ref="D3" r:id="rId2" display="https://yandex.ru/maps/org/gosudarstvenny_muzey_zapovednik_m_a_sholokhova_sholokhov_tsentr/1716747501/?ll=39.736455%2C47.226144&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCbqilBCs3ENAEeVFJuDXnEdAEhIJjSjtDb4waT8RH6LRHcTOVD8iBgABAgMEBSgKOABAh80GSAFqAnJ1nQHNzMw9oAEAqAEAvQGpl88owgEF7fnNsgaCAmDQoNC%2B0YHRgtC%2B0LLRgdC60LjQuSDQvNGD0LfQtdC5LdC30LDQv9C%2B0LLQtdC00L3QuNC6ICLQlNC%2B0Lwt0LzRg9C30LXQuSDQnC7QkC4g0KjQvtC70L7RhdC%2B0LLQsCKKAgCSAgU5OTA3NpoCDGRlc2t0b3AtbWFwcw%3D%3D&amp;sll=39.736455%2C47.226144&amp;sspn=0.002714%2C0.001121&amp;text=%D0%A0%D0%BE%D1%81%D1%82%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9%20%D0%BC%D1%83%D0%B7%D0%B5%D0%B9-%D0%B7%D0%B0%D0%BF%D0%BE%D0%B2%D0%B5%D0%B4%D0%BD%D0%B8%D0%BA%20%22%D0%94%D0%BE%D0%BC-%D0%BC%D1%83%D0%B7%D0%B5%D0%B9%20%D0%9C.%D0%90.%20%D0%A8%D0%BE%D0%BB%D0%BE%D1%85%D0%BE%D0%B2%D0%B0%22&amp;z=19.46" xr:uid="{F7A204EE-B6A1-417C-A8C7-BB4F002BF6F7}"/>
     <hyperlink ref="D4" r:id="rId3" display="https://yandex.ru/maps/org/munitsipalnoye_avtonomnoye_uchrezhdeniye_muzey_istorii_goroda_rostova_na_donu/221600590317/?ll=39.715460%2C47.221130&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCeP8TShE3kNAEeMXXknynEdAEhIJDRe5p6s7Zj8RTimvldBdUj8iBgABAgMEBSgKOABAg80GSAFqAnJ1nQHNzMw9oAEAqAEAvQHXFYc1wgEG7dOyw7kGggI70KDQvtGB0YLQvtCy0YHQutC40Lkg0LzRg9C30LXQuSDQuNGB0YLQvtGA0LjQuCDQs9C%2B0YDQvtC00LCKAgCSAgCaAgxkZXNrdG9wLW1hcHM%3D&amp;sll=39.715236%2C47.221130&amp;sspn=0.001625%2C0.000671&amp;text=%D0%A0%D0%BE%D1%81%D1%82%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9%20%D0%BC%D1%83%D0%B7%D0%B5%D0%B9%20%D0%B8%D1%81%D1%82%D0%BE%D1%80%D0%B8%D0%B8%20%D0%B3%D0%BE%D1%80%D0%BE%D0%B4%D0%B0&amp;z=20.2" xr:uid="{4905AADB-45A9-41B0-8D25-260788EDB816}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{5FB6CCC5-D8B3-4621-85C2-EF7C0B2726A6}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{AD2EA1B1-E9AC-4C43-8F45-217D9D32A728}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{1D150ACA-9ED1-4C46-97CE-53E358652584}"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://yandex.ru/maps/org/muzey_istorii_razvitiya_svyazi_na_donu/126940334853/?ll=39.708004%2C47.224465&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCQCo4sYt3kNAES0Kuyh6nEdAEhIJ7Z3RViWRsT8RLT4FwHgGnT8iBgABAgMEBSgKOABAg80GSAFqAnJ1nQHNzMw9oAEAqAEAvQGYS5sZwgEVhZbv8dgDscbqwQSBja2DBJqa0PoDggIK0LzRg9C30LXQuIoCCTE4NDEwNTg5NJICAJoCDGRlc2t0b3AtbWFwc6oCDDE1NjEzMTU1Mjk4MA%3D%3D&amp;sll=39.708004%2C47.224465&amp;sspn=0.007647%2C0.004362&amp;text=%D0%BC%D1%83%D0%B7%D0%B5%D0%B8&amp;z=17.5" xr:uid="{CBF67ED2-8013-4E14-9C25-23590EB4446D}"/>
+    <hyperlink ref="D10" r:id="rId8" display="https://yandex.ru/maps/org/rossiya_moya_istoriya/78146961910/?ll=39.773007%2C47.242842&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCRGnk2x14UNAERDJkGProUdAEhIJ2e2zykxpxz8RwsO0b%2B6vuj8iBgABAgMEBSgKOABA0YgGSAFqAnJ1nQHNzMw9oAEAqAEAvQHKCI2%2BwgEs9oOwj6MC%2B7P3xQTptvzVCe35zbIGyZ6ijrkGuOG39AOogZzciwHh59iGvAOCAgrQvNGD0LfQtdC5igIJMTg0MTA1ODk0kgIAmgIMZGVza3RvcC1tYXBzqgIZMTU2MTMxNTUyOTgwLDIwNTY3NDg2NTk1Nw%3D%3D&amp;sll=39.773007%2C47.242842&amp;sspn=0.060335%2C0.034403&amp;text=%D0%BC%D1%83%D0%B7%D0%B5%D0%B9&amp;z=14.52" xr:uid="{25039516-C3C4-4AF3-BB75-D38211278F09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B68073B-CFE9-437E-9C00-5C2F9A5623FF}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,86 +2842,141 @@
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://yandex.ru/maps/org/magadan/231267455827/?ll=39.730785%2C47.225610&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCbGk3H2O20NAEbq6Y7FNnEdAEhIJuWx0zk9xTD8RIQIOoUrNPj8iBgABAgMEBSgKOABAh80GSAFqAnJ1nQHNzMw9oAEAqAEAvQHEPiO4wgEG06b1xN0GggIh0KDQtdGB0YLQvtGA0LDQvSAi0JzQsNCz0LDQtNCw0L0iigIAkgIAmgIMZGVza3RvcC1tYXBz&amp;sll=39.730785%2C47.225610&amp;sspn=0.003987%2C0.001581&amp;text=Ресторан%20%22Магадан%22&amp;z=18.95" xr:uid="{FB6364B6-6019-4FA1-A163-51C09DC453CC}"/>
     <hyperlink ref="D3" r:id="rId2" display="https://yandex.ru/maps/org/raki_i_gady/56673484613/?filter=alternate_vertical%3ARequestWindow&amp;ll=39.714000%2C47.220835&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCXL6er5m20NAEWRz1TxHnEdAEhIJTS7GwDqOTz8ReXjPgeUIOT8iBgABAgMEBSgKOABAg80GSAFqAnJ1nQHNzMw9oAEAqAEAvQE3fovewgEGxf6CkNMBggIn0KDQtdGB0YLQvtGA0LDQvSAi0KDQsNC60Lgg0Lgg0JPQsNC00YsiigIAkgIAmgIMZGVza3RvcC1tYXBzwgID4oK9&amp;sll=39.714128%2C47.220835&amp;sspn=0.000705%2C0.000382&amp;text=Ресторан%20%22Раки%20и%20Гады%22&amp;z=21" xr:uid="{AAE837EE-7BEB-49FD-9C9D-319BF5FB8D15}"/>
     <hyperlink ref="D4" r:id="rId3" display="https://yandex.ru/maps/org/petrovskiy_prichal/39199429877/?ll=39.753257%2C47.211912&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCUlnYORl20NAEcXjolpEnEdAEhIJTS7GwDqOTz8ReXjPgeUIOT8iBgABAgMEBSgKOABAg80GSAFqAnJ1nQHNzMw9oAEAqAEAvQFXqMCRwgEM%2BtbP9sYC9anfg5IBggI00KDQtdGB0YLQvtGA0LDQvSAi0J%2FQtdGC0YDQvtCy0YHQutC40Lkg0L%2FRgNC40YfQsNC7IooCAJICAJoCDGRlc2t0b3AtbWFwcw%3D%3D&amp;sll=39.753257%2C47.211912&amp;sspn=0.000705%2C0.000382&amp;text=Ресторан%20%22Петровский%20причал%22&amp;z=21" xr:uid="{006627DB-01C2-4788-B7EE-90FBABED56D2}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://yandex.ru/maps/org/onegindacha/149553769719/" xr:uid="{77CB81CD-2CE2-4572-B90F-F82696C18513}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514043D9-A52A-464A-96F5-A20F9B67F7E0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,44 +3003,100 @@
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>116</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2693,18 +3104,25 @@
     <hyperlink ref="D2" r:id="rId1" display="https://yandex.ru/maps/org/park_imeni_oktyabrskoy_revolyutsii/55423928344/?ll=39.746401%2C47.229749&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCdU9srlq4ENAEaLQsu4fm0dAEhIJmYHK%2BPcZRz8ReXjPgeUIOT8iBgABAgMEBSgKOABAiM0GSAFqAnJ1nQHNzMw9oAEAqAEAvQHvOs2QwgEGmJCYvM4BggI90J%2FQsNGA0Log0LjQvNC10L3QuCDQntC60YLRj9Cx0YDRjNGB0LrQvtC5INCg0LXQstC%2B0LvRjtGG0LjQuIoCAJICAJoCDGRlc2t0b3AtbWFwcw%3D%3D&amp;sll=39.746401%2C47.229749&amp;sspn=0.012514%2C0.004963&amp;text=Парк%20имени%20Октябрьской%20Революции&amp;z=17.3" xr:uid="{B9CB7229-F7DE-47AA-BDC7-6BE3C24D2C4B}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{37229AC4-0ACC-4F27-8676-A546698C8E4D}"/>
     <hyperlink ref="D4" r:id="rId3" display="https://yandex.ru/maps/org/levoberezhny/56366583276/?ll=39.727973%2C47.211484&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCbd546Qw20NAEUfIQJ5dnEdAEhIJY4BEEyhigT8R7BhXXByVaz8iBgABAgMEBSgKOABAh80GSAFqAnJ1nQHNzMw9oAEAqAEAvQE007OtwgEG7JvX%2FdEBggIh0J%2FQsNGA0Log0JvQtdCy0L7QsdC10YDQtdC20L3Ri9C5igIAkgIAmgIMZGVza3RvcC1tYXBz&amp;sll=39.727973%2C47.211484&amp;sspn=0.008430%2C0.003344&amp;text=Парк%20Левобережный&amp;z=17.87" xr:uid="{DB436476-0B89-42AD-855D-494769110361}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://yandex.ru/maps/org/mbu_park_kultury_i_otdykha_1_maya/140338491695/" xr:uid="{76ACBA0F-6E95-400D-8483-EE939C9973D9}"/>
+    <hyperlink ref="D5" r:id="rId5" display="https://yandex.ru/maps/org/mbu_park_kultury_i_otdykha_1_maya/140338491695/?filter=alternate_vertical%3ARequestWindow&amp;ll=39.746020%2C47.227654&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCTl7Z7RV3UNAEQ%2FTvrm%2FnEdAEhIJcvkP6bevkz8Rbojxmld1hj8iBgABAgMEBSgKOABAh80GSAFqAnJ1nQHNzMw9oAEAqAEAvQHOtjqPwgEgmJCYvM4Br%2BLN5ooEx%2Fyx8AOkl4zgqAKhhIClsbTXzWOCAgrQv9Cw0YDQutC4igITMTg0MTA2MzQ2JDI1NjAzNzM2MpICAJoCDGRlc2t0b3AtbWFwcw%3D%3D&amp;sll=39.746020%2C47.227654&amp;sspn=0.027188%2C0.015507&amp;text=%D0%BF%D0%B0%D1%80%D0%BA%D0%B8&amp;z=15.67" xr:uid="{4F342C02-496F-4483-83CD-0BA2FF418299}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://yandex.ru/maps/org/detskiy_park_im_v_cherevichkina/1041006151/" xr:uid="{07740B49-371E-4B77-A9AB-1F037B8DA7E3}"/>
+    <hyperlink ref="D6" r:id="rId7" display="https://yandex.ru/maps/org/detskiy_park_im_v_cherevichkina/1041006151/?filter=alternate_vertical%3ARequestWindow&amp;ll=39.753734%2C47.227324&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCTl7Z7RV3UNAEQ%2FTvrm%2FnEdAEhIJcvkP6bevkz8Rbojxmld1hj8iBgABAgMEBSgKOABAiM0GSAFqAnJ1nQHNzMw9oAEAqAEAvQHOtjqPwgERmJCYvM4Br%2BLN5ooEx%2Fyx8AOCAgrQv9Cw0YDQutC4igITMTg0MTA2MzQ2JDI1NjAzNzM2MpICAJoCDGRlc2t0b3AtbWFwcw%3D%3D&amp;sll=39.753734%2C47.227324&amp;sspn=0.027188%2C0.015507&amp;text=%D0%BF%D0%B0%D1%80%D0%BA%D0%B8&amp;z=15.67" xr:uid="{7148A896-F51D-4B91-B110-F87706F146D4}"/>
+    <hyperlink ref="A7" r:id="rId8" display="https://yandex.ru/maps/org/studencheskiy_park_dgtu/151609631062/" xr:uid="{1F46F146-8570-48C1-86AA-6BFE5A278008}"/>
+    <hyperlink ref="A8" r:id="rId9" display="https://yandex.ru/maps/org/park_stroiteley/202489468883/" xr:uid="{CE8B61B6-E247-4A95-8379-342699505E32}"/>
+    <hyperlink ref="D8" r:id="rId10" display="https://yandex.ru/maps/org/park_stroiteley/202489468883/?filter=alternate_vertical%3ARequestWindow&amp;ll=39.708653%2C47.230152&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCfgaguMy2kNAEelhaHVynEdAEhIJ7xr0pbc%2Fhz8RVaNXA5SGej8iBgABAgMEBSgKOABAJ0gBagJydZ0BzczMPaABAKgBAL0BzrY6j8IBPfz60IME1sKN5bQE06%2FAqvIFkO%2Ba1o8FoYSApbG0181jwKP42R%2FM%2FIuZ6gakl4zgqALvh9XJ4QSvs7fg2waCAgrQv9Cw0YDQutC4igITMTg0MTA2MzQ2JDI1NjAzNzM2MpICAJoCDGRlc2t0b3AtbWFwcw%3D%3D&amp;sll=39.708653%2C47.230152&amp;sspn=0.034894%2C0.019902&amp;text=%D0%BF%D0%B0%D1%80%D0%BA%D0%B8&amp;z=15.31" xr:uid="{C0E52FC3-0126-4914-BABD-49B42A831D40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163A857C-7ED7-4B68-98B4-1C4C148D4A3E}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,44 +3151,100 @@
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>107</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2778,8 +3252,10 @@
     <hyperlink ref="D4" r:id="rId1" xr:uid="{26A07D71-83F2-483D-B8D7-F943B0F465BA}"/>
     <hyperlink ref="D3" r:id="rId2" display="https://yandex.ru/maps/org/osminozhek/1110942272/?ll=39.720750%2C47.289377&amp;mode=search&amp;sctx=ZAAAAAgBEAAaKAoSCbMJMCx%2F3ENAEcB7R40JpUdAEhIJnigJibSNjz8RIxKFlnX%2FeD8iBgABAgMEBSgKOABAic0GSAFqAnJ1nQHNzMw9oAEAqAEAvQE1TfRiwgEFwMTekQSCAiXQkNC60LLQsNC%2F0LDRgNC6INCe0YHRjNC80LjQvdC%2B0LbQtdC6igIAkgIAmgIMZGVza3RvcC1tYXBz&amp;sll=39.720750%2C47.289377&amp;sspn=0.001106%2C0.000438&amp;text=Аквапарк%20Осьминожек&amp;z=20.8" xr:uid="{11B48812-8B4A-45CF-9227-7789085A39CE}"/>
     <hyperlink ref="D2" r:id="rId3" xr:uid="{859E163E-854F-4B24-84E9-4312DF94C21B}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://yandex.ru/maps/org/dzhoul_park/98370295040/" xr:uid="{8A814BDF-BBEB-402A-B72E-276778615A1D}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://yandex.ru/maps/org/chyo_za_kvest/45653779581/" xr:uid="{0B8CDE13-E99C-4C1D-8B74-30E9D20BCFD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>